--- a/pages/archivo.xlsx
+++ b/pages/archivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema_de_monitoreo_estudiantil\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9FDB33-0866-44BB-AD08-874BA488D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC96FDE-AD8D-4B92-B70B-662DDD9250BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2055" windowWidth="18405" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>P. Web</t>
+  </si>
+  <si>
+    <t>Ivette</t>
+  </si>
+  <si>
+    <t>POO</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +435,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1811240</v>
+        <v>1611240</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -439,6 +445,20 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1874568</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pages/archivo.xlsx
+++ b/pages/archivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema_de_monitoreo_estudiantil\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC96FDE-AD8D-4B92-B70B-662DDD9250BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5706AEF2-A8DD-4621-BBA9-B0B087844530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2055" windowWidth="18405" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +461,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1911456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1745678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1811111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pages/archivo.xlsx
+++ b/pages/archivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistema_de_monitoreo_estudiantil\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5706AEF2-A8DD-4621-BBA9-B0B087844530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F766D822-7212-438E-AF9D-5DBB1F707590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -476,6 +476,26 @@
         <v>1811111</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8888888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1234569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8745623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
